--- a/data/PIB Trimestral 1950-2020 Propatto 1950-2017 INDEC 2018-2020.xlsx
+++ b/data/PIB Trimestral 1950-2020 Propatto 1950-2017 INDEC 2018-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCF7FD-B5E6-3E42-9DDC-C0A17D2A3330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19333E47-0ED8-0943-844E-39CFB76CA9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{03293AEC-FCA7-4557-A783-7336B0A28C50}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{03293AEC-FCA7-4557-A783-7336B0A28C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Series Resumen" sheetId="1" r:id="rId1"/>
@@ -857,9 +857,6 @@
     <t>I 18</t>
   </si>
   <si>
-    <t>PIB Trimestal Estimado (desestacionalizado)</t>
-  </si>
-  <si>
     <t>II 18</t>
   </si>
   <si>
@@ -902,7 +899,10 @@
     <t>III 21</t>
   </si>
   <si>
-    <t>Trimestre</t>
+    <t>trimestre</t>
+  </si>
+  <si>
+    <t>pbird_arg</t>
   </si>
 </sst>
 </file>
@@ -1363,12 +1363,12 @@
     <col min="2" max="2" width="11.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3557,7 +3557,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="6">
         <v>702642</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="6">
         <v>700254</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="6">
         <v>690324</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="6">
         <v>692058</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="6">
         <v>696592</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="6">
         <v>697683</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="6">
         <v>685852</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="6">
         <v>658858</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="6">
         <v>559239</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="6">
         <v>625832</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="6">
         <v>653942</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="6">
         <v>675579</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="6">
         <v>669237</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="6">
         <v>696524</v>

--- a/data/PIB Trimestral 1950-2020 Propatto 1950-2017 INDEC 2018-2020.xlsx
+++ b/data/PIB Trimestral 1950-2020 Propatto 1950-2017 INDEC 2018-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19333E47-0ED8-0943-844E-39CFB76CA9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16412E4-3AB2-984F-A8B2-1CFC98F8B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{03293AEC-FCA7-4557-A783-7336B0A28C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{03293AEC-FCA7-4557-A783-7336B0A28C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Series Resumen" sheetId="1" r:id="rId1"/>
